--- a/input/DES_Input_Definitions.xlsx
+++ b/input/DES_Input_Definitions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uol.le.ac.uk\root\staff\home\m\ms1001\My Documents\AAA\AAA_DES_model\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\uol.le.ac.uk\root\staff\home\m\ms1001\My Documents\AAA\AAA_DES_model\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Input Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="blah">#REF!</definedName>
     <definedName name="YearsNeeded">#REF!</definedName>
@@ -1449,29 +1446,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main Data Items"/>
-      <sheetName val="Growth and Rupture Rates"/>
-      <sheetName val="AAA Size Distribution"/>
-      <sheetName val="Model Parameters"/>
-      <sheetName val="Other cause mortality"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1738,8 +1712,8 @@
   <dimension ref="A1:XET101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
